--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Sibur\Python_scripts\VDR_validation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28307B2-24EE-46BD-875E-21A849760249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF18747-BE62-4917-BE79-1D35BD53972E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35940" yWindow="4065" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6285" yWindow="3570" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config_info" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Vendor 
 Поставщик</t>
@@ -84,11 +84,59 @@
 Кол-во листов</t>
   </si>
   <si>
-    <t>Title list</t>
-  </si>
-  <si>
     <t>PLIP Code
 Код PLIP</t>
+  </si>
+  <si>
+    <t>Title list out</t>
+  </si>
+  <si>
+    <t>Title list in</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Purchase Order</t>
+  </si>
+  <si>
+    <t>Contractor's Revision</t>
+  </si>
+  <si>
+    <t>Owner's Revision</t>
+  </si>
+  <si>
+    <t>Rev. Date</t>
+  </si>
+  <si>
+    <t>Confidential Class</t>
+  </si>
+  <si>
+    <t>PLIP Code</t>
+  </si>
+  <si>
+    <t>Contractor's Document Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Owner's Document number </t>
+  </si>
+  <si>
+    <t>English Document Title</t>
+  </si>
+  <si>
+    <t>Russian Document Title</t>
+  </si>
+  <si>
+    <t>Doc. Type (VDR code)</t>
+  </si>
+  <si>
+    <t>Reason for issue</t>
+  </si>
+  <si>
+    <t>No of Sheets</t>
   </si>
 </sst>
 </file>
@@ -426,137 +474,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="149.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
